--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T07:54:16+00:00</t>
+    <t>2024-05-28T07:55:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T07:55:12+00:00</t>
+    <t>2024-05-28T12:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:10:40+00:00</t>
+    <t>2024-05-28T12:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:12:57+00:00</t>
+    <t>2024-05-28T13:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:46:04+00:00</t>
+    <t>2024-05-28T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:46:56+00:00</t>
+    <t>2024-05-28T14:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:08:32+00:00</t>
+    <t>2024-05-31T13:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T13:43:47+00:00</t>
+    <t>2024-06-25T20:35:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T20:35:23+00:00</t>
+    <t>2024-06-26T07:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T07:47:20+00:00</t>
+    <t>2024-06-26T08:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T08:46:49+00:00</t>
+    <t>2024-06-27T12:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:29:52+00:00</t>
+    <t>2024-06-27T12:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:58:56+00:00</t>
+    <t>2024-07-04T11:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:48:06+00:00</t>
+    <t>2024-07-04T11:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:53:56+00:00</t>
+    <t>2024-07-04T11:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:58:25+00:00</t>
+    <t>2024-07-04T11:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:58:07+00:00</t>
+    <t>2024-07-04T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T12:00:42+00:00</t>
+    <t>2024-09-24T12:46:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T12:46:07+00:00</t>
+    <t>2024-09-24T12:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T12:55:17+00:00</t>
+    <t>2024-09-24T13:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T13:55:27+00:00</t>
+    <t>2024-09-24T14:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:01:49+00:00</t>
+    <t>2024-09-24T16:16:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T16:16:00+00:00</t>
+    <t>2024-09-24T16:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T16:16:30+00:00</t>
+    <t>2025-11-17T08:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1771,17 +1771,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.9921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1790,25 +1790,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="90.21875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="89.0078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.17578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="76.30859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.16015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3926,7 +3926,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>197</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>214</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>394</v>
       </c>
@@ -9603,12 +9603,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM70">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T08:43:36+00:00</t>
+    <t>2025-11-17T09:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T09:24:16+00:00</t>
+    <t>2025-11-17T13:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T13:15:55+00:00</t>
+    <t>2025-11-17T14:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:06:25+00:00</t>
+    <t>2025-11-17T14:06:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:06:39+00:00</t>
+    <t>2025-11-17T14:24:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-related-person.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-related-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:24:44+00:00</t>
+    <t>2025-11-17T14:25:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
